--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3061.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3061.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1076536102356605</v>
+        <v>1.668637275695801</v>
       </c>
       <c r="B1">
-        <v>0.08542192474226584</v>
+        <v>3.252068996429443</v>
       </c>
       <c r="C1">
-        <v>0.07469487671881903</v>
+        <v>6.070633888244629</v>
       </c>
       <c r="D1">
-        <v>0.08032201530155371</v>
+        <v>1.865052700042725</v>
       </c>
       <c r="E1">
-        <v>0.09741784214996031</v>
+        <v>0.9073725342750549</v>
       </c>
     </row>
   </sheetData>
